--- a/data/trans_bre/P23_11_R-Urba-trans_bre.xlsx
+++ b/data/trans_bre/P23_11_R-Urba-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:N12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -525,6 +525,10 @@
     <col width="14" customWidth="1" min="8" max="8"/>
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -542,14 +546,18 @@
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>Brecha de género relativa</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -571,27 +579,47 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>Mz1</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
         </is>
       </c>
     </row>
@@ -606,6 +634,10 @@
       <c r="H3" s="2" t="n"/>
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -620,42 +652,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>2,4</t>
+          <t>2,48</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>1,97</t>
+          <t>2,05</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>3,68</t>
+          <t>3,73</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>2,05</t>
+          <t>2,97</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>63,22%</t>
+          <t>2,04</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>81,29%</t>
+          <t>1,01</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>138,36%</t>
+          <t>63,16%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>28,83%</t>
+          <t>85,24%</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>138,37%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>78,05%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>28,74%</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>11,33%</t>
         </is>
       </c>
     </row>
@@ -668,42 +720,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-1,18; 5,06</t>
+          <t>-1,16; 5,18</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,09; 3,8</t>
+          <t>0,15; 4,02</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>1,37; 5,77</t>
+          <t>1,38; 5,72</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-0,94; 4,98</t>
+          <t>0,02; 5,82</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-27,78; 206,89</t>
+          <t>-1,19; 5,22</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-5,92; 231,48</t>
+          <t>-2,69; 4,34</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>30,21; 318,51</t>
+          <t>-26,33; 208,67</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-10,99; 92,35</t>
+          <t>2,24; 262,29</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>24,2; 327,51</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>-2,12; 226,34</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>-13,28; 93,71</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>-23,77; 63,07</t>
         </is>
       </c>
     </row>
@@ -720,42 +792,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>4,39</t>
+          <t>4,78</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>1,01</t>
+          <t>0,99</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>2,58</t>
+          <t>2,7</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>4,54</t>
+          <t>1,24</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>124,95%</t>
+          <t>4,55</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>23,51%</t>
+          <t>3,56</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>75,25%</t>
+          <t>138,09%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>80,14%</t>
+          <t>22,85%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>79,57%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>24,07%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>80,24%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>50,04%</t>
         </is>
       </c>
     </row>
@@ -768,42 +860,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0,65; 7,98</t>
+          <t>1,02; 8,6</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-2,35; 3,48</t>
+          <t>-2,38; 3,61</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-0,23; 5,36</t>
+          <t>-0,36; 5,14</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-0,47; 10,93</t>
+          <t>-3,66; 4,83</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>1,95; 400,46</t>
+          <t>-0,67; 10,53</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-39,28; 121,71</t>
+          <t>-1,74; 8,98</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-9,46; 260,17</t>
+          <t>-10,32; 388,2</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-12,86; 318,36</t>
+          <t>-38,47; 130,2</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>-14,94; 233,23</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>-47,89; 159,29</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>-14,39; 305,26</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>-20,68; 188,03</t>
         </is>
       </c>
     </row>
@@ -820,40 +932,60 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>2,44</t>
+          <t>2,57</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>4,0</t>
+          <t>3,97</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,11</t>
+          <t>-0,5</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
+          <t>2,05</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
           <t>—</t>
         </is>
       </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>155,93%</t>
-        </is>
-      </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>257,93%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>1,99%</t>
+          <t>157,62%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>249,54%</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>-8,1%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>64,59%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
         <is>
           <t>—%</t>
         </is>
@@ -868,40 +1000,60 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-1,51; 6,57</t>
+          <t>-1,12; 6,53</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,55; 7,98</t>
+          <t>0,51; 8,16</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-14,66; 6,02</t>
+          <t>-18,67; 5,76</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
+          <t>-2,76; 7,47</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>-76,83; —</t>
-        </is>
-      </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-13,21; 1262,82</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-90,23; 811,52</t>
+          <t>-84,67; —</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>-22,27; 1342,54</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>-87,52; 647,48</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>-64,96; 667,92</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
@@ -920,12 +1072,12 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>3,19</t>
+          <t>3,4</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>1,81</t>
+          <t>1,83</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
@@ -935,27 +1087,47 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>2,63</t>
+          <t>2,18</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>93,07%</t>
+          <t>2,62</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>59,08%</t>
+          <t>1,61</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>84,24%</t>
+          <t>98,02%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>38,9%</t>
+          <t>59,41%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>82,49%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>51,08%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>38,84%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>19,07%</t>
         </is>
       </c>
     </row>
@@ -968,42 +1140,69 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0,99; 5,07</t>
+          <t>0,96; 5,51</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0,34; 3,23</t>
+          <t>0,31; 3,48</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0,71; 4,42</t>
+          <t>0,47; 4,35</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-0,17; 5,21</t>
+          <t>-0,08; 4,27</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>14,99; 201,09</t>
+          <t>-0,07; 5,45</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>5,63; 146,18</t>
+          <t>-1,74; 4,25</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>12,8; 179,87</t>
+          <t>13,95; 222,83</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-2,74; 97,88</t>
+          <t>5,6; 153,82</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>1,89; 166,9</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>-6,39; 130,29</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>-0,85; 106,19</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>-16,21; 62,8</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
@@ -1011,11 +1210,11 @@
   <mergeCells count="7">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A4:A5"/>
+    <mergeCell ref="I1:N1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
+    <mergeCell ref="C1:H1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/trans_bre/P23_11_R-Urba-trans_bre.xlsx
+++ b/data/trans_bre/P23_11_R-Urba-trans_bre.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -125,7 +128,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -138,6 +141,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -504,7 +513,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N12"/>
+  <dimension ref="A1:N16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -650,419 +659,271 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>2,48</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>2,05</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>3,73</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>2,97</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>2,04</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>1,01</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>63,16%</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>85,24%</t>
-        </is>
-      </c>
-      <c r="K4" s="2" t="inlineStr">
-        <is>
-          <t>138,37%</t>
-        </is>
-      </c>
-      <c r="L4" s="2" t="inlineStr">
-        <is>
-          <t>78,05%</t>
-        </is>
-      </c>
-      <c r="M4" s="2" t="inlineStr">
-        <is>
-          <t>28,74%</t>
-        </is>
-      </c>
-      <c r="N4" s="2" t="inlineStr">
-        <is>
-          <t>11,33%</t>
-        </is>
+      <c r="C4" s="5" t="n">
+        <v>2.769579071574815</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>2.107473258093642</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>3.791831397579939</v>
+      </c>
+      <c r="F4" s="5" t="n">
+        <v>2.953591744623216</v>
+      </c>
+      <c r="G4" s="5" t="n">
+        <v>2.041883924721957</v>
+      </c>
+      <c r="H4" s="5" t="n">
+        <v>1.077749921665533</v>
+      </c>
+      <c r="I4" s="6" t="n">
+        <v>0.7262112658315278</v>
+      </c>
+      <c r="J4" s="6" t="n">
+        <v>0.8903301408799326</v>
+      </c>
+      <c r="K4" s="6" t="n">
+        <v>1.428552540994644</v>
+      </c>
+      <c r="L4" s="6" t="n">
+        <v>0.7715032657763059</v>
+      </c>
+      <c r="M4" s="6" t="n">
+        <v>0.2874436775926512</v>
+      </c>
+      <c r="N4" s="6" t="n">
+        <v>0.122648129149983</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>-1,16; 5,18</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>0,15; 4,02</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>1,38; 5,72</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>0,02; 5,82</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>-1,19; 5,22</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>-2,69; 4,34</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>-26,33; 208,67</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>2,24; 262,29</t>
-        </is>
-      </c>
-      <c r="K5" s="2" t="inlineStr">
-        <is>
-          <t>24,2; 327,51</t>
-        </is>
-      </c>
-      <c r="L5" s="2" t="inlineStr">
-        <is>
-          <t>-2,12; 226,34</t>
-        </is>
-      </c>
-      <c r="M5" s="2" t="inlineStr">
-        <is>
-          <t>-13,28; 93,71</t>
-        </is>
-      </c>
-      <c r="N5" s="2" t="inlineStr">
-        <is>
-          <t>-23,77; 63,07</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>-0.6583897308709276</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>0.2702194799092374</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>1.409230190546491</v>
+      </c>
+      <c r="F5" s="5" t="n">
+        <v>-0.0001044942154083468</v>
+      </c>
+      <c r="G5" s="5" t="n">
+        <v>-1.194399078550704</v>
+      </c>
+      <c r="H5" s="5" t="n">
+        <v>-2.571019742665678</v>
+      </c>
+      <c r="I5" s="6" t="n">
+        <v>-0.2171539256388914</v>
+      </c>
+      <c r="J5" s="6" t="n">
+        <v>0.01762672233807675</v>
+      </c>
+      <c r="K5" s="6" t="n">
+        <v>0.2330430034370984</v>
+      </c>
+      <c r="L5" s="6" t="n">
+        <v>-0.02441248230292702</v>
+      </c>
+      <c r="M5" s="6" t="n">
+        <v>-0.1328483595185432</v>
+      </c>
+      <c r="N5" s="6" t="n">
+        <v>-0.2328357361019064</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>5.654533239102447</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>4.103350540301354</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>5.766469853902264</v>
+      </c>
+      <c r="F6" s="5" t="n">
+        <v>5.771901594926698</v>
+      </c>
+      <c r="G6" s="5" t="n">
+        <v>5.219815331387208</v>
+      </c>
+      <c r="H6" s="5" t="n">
+        <v>4.292021826261414</v>
+      </c>
+      <c r="I6" s="6" t="n">
+        <v>2.311679197231754</v>
+      </c>
+      <c r="J6" s="6" t="n">
+        <v>2.745149618054409</v>
+      </c>
+      <c r="K6" s="6" t="n">
+        <v>3.379133738420791</v>
+      </c>
+      <c r="L6" s="6" t="n">
+        <v>2.262571830749947</v>
+      </c>
+      <c r="M6" s="6" t="n">
+        <v>0.9370833975588627</v>
+      </c>
+      <c r="N6" s="6" t="n">
+        <v>0.6365016089606311</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>Intermedio</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B7" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>4,78</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>0,99</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>2,7</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>1,24</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>4,55</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>3,56</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>138,09%</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>22,85%</t>
-        </is>
-      </c>
-      <c r="K6" s="2" t="inlineStr">
-        <is>
-          <t>79,57%</t>
-        </is>
-      </c>
-      <c r="L6" s="2" t="inlineStr">
-        <is>
-          <t>24,07%</t>
-        </is>
-      </c>
-      <c r="M6" s="2" t="inlineStr">
-        <is>
-          <t>80,24%</t>
-        </is>
-      </c>
-      <c r="N6" s="2" t="inlineStr">
-        <is>
-          <t>50,04%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>1,02; 8,6</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>-2,38; 3,61</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>-0,36; 5,14</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>-3,66; 4,83</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>-0,67; 10,53</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>-1,74; 8,98</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>-10,32; 388,2</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>-38,47; 130,2</t>
-        </is>
-      </c>
-      <c r="K7" s="2" t="inlineStr">
-        <is>
-          <t>-14,94; 233,23</t>
-        </is>
-      </c>
-      <c r="L7" s="2" t="inlineStr">
-        <is>
-          <t>-47,89; 159,29</t>
-        </is>
-      </c>
-      <c r="M7" s="2" t="inlineStr">
-        <is>
-          <t>-14,39; 305,26</t>
-        </is>
-      </c>
-      <c r="N7" s="2" t="inlineStr">
-        <is>
-          <t>-20,68; 188,03</t>
-        </is>
+      <c r="C7" s="5" t="n">
+        <v>4.101965971168957</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>1.05853973650294</v>
+      </c>
+      <c r="E7" s="5" t="n">
+        <v>2.584889376245655</v>
+      </c>
+      <c r="F7" s="5" t="n">
+        <v>1.313095550868654</v>
+      </c>
+      <c r="G7" s="5" t="n">
+        <v>4.547235404838245</v>
+      </c>
+      <c r="H7" s="5" t="n">
+        <v>3.450570664995857</v>
+      </c>
+      <c r="I7" s="6" t="n">
+        <v>1.131243843113649</v>
+      </c>
+      <c r="J7" s="6" t="n">
+        <v>0.2516534748569759</v>
+      </c>
+      <c r="K7" s="6" t="n">
+        <v>0.7497314588350482</v>
+      </c>
+      <c r="L7" s="6" t="n">
+        <v>0.2556910034051833</v>
+      </c>
+      <c r="M7" s="6" t="n">
+        <v>0.802419374601846</v>
+      </c>
+      <c r="N7" s="6" t="n">
+        <v>0.4791799821536017</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Rural</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>2,57</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>3,97</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>-0,5</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>2,05</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>157,62%</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>249,54%</t>
-        </is>
-      </c>
-      <c r="K8" s="2" t="inlineStr">
-        <is>
-          <t>-8,1%</t>
-        </is>
-      </c>
-      <c r="L8" s="2" t="inlineStr">
-        <is>
-          <t>64,59%</t>
-        </is>
-      </c>
-      <c r="M8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="N8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="n">
+        <v>0.3879608751453221</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>-2.10220439219776</v>
+      </c>
+      <c r="E8" s="5" t="n">
+        <v>-0.5515823861167766</v>
+      </c>
+      <c r="F8" s="5" t="n">
+        <v>-3.653394401670834</v>
+      </c>
+      <c r="G8" s="5" t="n">
+        <v>-0.6676466032672398</v>
+      </c>
+      <c r="H8" s="5" t="n">
+        <v>-1.838840879853918</v>
+      </c>
+      <c r="I8" s="6" t="n">
+        <v>-0.1047087247155729</v>
+      </c>
+      <c r="J8" s="6" t="n">
+        <v>-0.3644947679997868</v>
+      </c>
+      <c r="K8" s="6" t="n">
+        <v>-0.1809117180630393</v>
+      </c>
+      <c r="L8" s="6" t="n">
+        <v>-0.4687518303178098</v>
+      </c>
+      <c r="M8" s="6" t="n">
+        <v>-0.1438875221692844</v>
+      </c>
+      <c r="N8" s="6" t="n">
+        <v>-0.2114075273439027</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>-1,12; 6,53</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>0,51; 8,16</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>-18,67; 5,76</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>-2,76; 7,47</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I9" s="2" t="inlineStr">
-        <is>
-          <t>-84,67; —</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>-22,27; 1342,54</t>
-        </is>
-      </c>
-      <c r="K9" s="2" t="inlineStr">
-        <is>
-          <t>-87,52; 647,48</t>
-        </is>
-      </c>
-      <c r="L9" s="2" t="inlineStr">
-        <is>
-          <t>-64,96; 667,92</t>
-        </is>
-      </c>
-      <c r="M9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="N9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="n">
+        <v>7.462067485022268</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>3.747312204695933</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>5.078814478148506</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>4.909126697696853</v>
+      </c>
+      <c r="G9" s="5" t="n">
+        <v>10.53473240530944</v>
+      </c>
+      <c r="H9" s="5" t="n">
+        <v>8.935139030619329</v>
+      </c>
+      <c r="I9" s="6" t="n">
+        <v>3.457003154778741</v>
+      </c>
+      <c r="J9" s="6" t="n">
+        <v>1.388553464607643</v>
+      </c>
+      <c r="K9" s="6" t="n">
+        <v>2.259576096693841</v>
+      </c>
+      <c r="L9" s="6" t="n">
+        <v>1.633316541386957</v>
+      </c>
+      <c r="M9" s="6" t="n">
+        <v>3.052554285993768</v>
+      </c>
+      <c r="N9" s="6" t="n">
+        <v>1.856503966308904</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>Rural</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1070,137 +931,243 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>3,4</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>1,83</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>2,81</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>2,18</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>2,62</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>1,61</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>98,02%</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>59,41%</t>
-        </is>
-      </c>
-      <c r="K10" s="2" t="inlineStr">
-        <is>
-          <t>82,49%</t>
-        </is>
-      </c>
-      <c r="L10" s="2" t="inlineStr">
-        <is>
-          <t>51,08%</t>
-        </is>
-      </c>
-      <c r="M10" s="2" t="inlineStr">
-        <is>
-          <t>38,84%</t>
-        </is>
-      </c>
-      <c r="N10" s="2" t="inlineStr">
-        <is>
-          <t>19,07%</t>
-        </is>
-      </c>
+      <c r="C10" s="5" t="n">
+        <v>2.414603670639426</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>4.186055283012186</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>-0.03263331219623133</v>
+      </c>
+      <c r="F10" s="5" t="n">
+        <v>2.04460052106139</v>
+      </c>
+      <c r="G10" s="5" t="inlineStr"/>
+      <c r="H10" s="5" t="inlineStr"/>
+      <c r="I10" s="6" t="n">
+        <v>1.489971639409018</v>
+      </c>
+      <c r="J10" s="6" t="n">
+        <v>2.647615880762785</v>
+      </c>
+      <c r="K10" s="6" t="n">
+        <v>-0.005527716648588281</v>
+      </c>
+      <c r="L10" s="6" t="n">
+        <v>0.6434213213571968</v>
+      </c>
+      <c r="M10" s="6" t="inlineStr"/>
+      <c r="N10" s="6" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>0,96; 5,51</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>0,31; 3,48</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>0,47; 4,35</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>-0,08; 4,27</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>-0,07; 5,45</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>-1,74; 4,25</t>
-        </is>
-      </c>
-      <c r="I11" s="2" t="inlineStr">
-        <is>
-          <t>13,95; 222,83</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>5,6; 153,82</t>
-        </is>
-      </c>
-      <c r="K11" s="2" t="inlineStr">
-        <is>
-          <t>1,89; 166,9</t>
-        </is>
-      </c>
-      <c r="L11" s="2" t="inlineStr">
-        <is>
-          <t>-6,39; 130,29</t>
-        </is>
-      </c>
-      <c r="M11" s="2" t="inlineStr">
-        <is>
-          <t>-0,85; 106,19</t>
-        </is>
-      </c>
-      <c r="N11" s="2" t="inlineStr">
-        <is>
-          <t>-16,21; 62,8</t>
-        </is>
-      </c>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>-1.230345316543698</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>0.6563598939922309</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>-16.83093881155505</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>-2.779084395391142</v>
+      </c>
+      <c r="G11" s="5" t="inlineStr"/>
+      <c r="H11" s="5" t="inlineStr"/>
+      <c r="I11" s="6" t="n">
+        <v>-0.8266830273082011</v>
+      </c>
+      <c r="J11" s="6" t="n">
+        <v>-0.2153287138249978</v>
+      </c>
+      <c r="K11" s="6" t="n">
+        <v>-0.8595500065366778</v>
+      </c>
+      <c r="L11" s="6" t="n">
+        <v>-0.6465013750852453</v>
+      </c>
+      <c r="M11" s="6" t="inlineStr"/>
+      <c r="N11" s="6" t="inlineStr"/>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>6.316909378573747</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>8.581853019741391</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>6.107077667292934</v>
+      </c>
+      <c r="F12" s="5" t="n">
+        <v>7.73891388536202</v>
+      </c>
+      <c r="G12" s="5" t="inlineStr"/>
+      <c r="H12" s="5" t="inlineStr"/>
+      <c r="I12" s="6" t="inlineStr"/>
+      <c r="J12" s="6" t="n">
+        <v>14.24937216766657</v>
+      </c>
+      <c r="K12" s="6" t="n">
+        <v>7.095229238556524</v>
+      </c>
+      <c r="L12" s="6" t="n">
+        <v>7.135245805549963</v>
+      </c>
+      <c r="M12" s="6" t="inlineStr"/>
+      <c r="N12" s="6" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C13" s="5" t="n">
+        <v>3.248448810770495</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>1.912792178947913</v>
+      </c>
+      <c r="E13" s="5" t="n">
+        <v>2.854101131107738</v>
+      </c>
+      <c r="F13" s="5" t="n">
+        <v>2.201937742048074</v>
+      </c>
+      <c r="G13" s="5" t="n">
+        <v>2.622968574577508</v>
+      </c>
+      <c r="H13" s="5" t="n">
+        <v>1.63867322109216</v>
+      </c>
+      <c r="I13" s="6" t="n">
+        <v>0.9324285213124767</v>
+      </c>
+      <c r="J13" s="6" t="n">
+        <v>0.6351714839161152</v>
+      </c>
+      <c r="K13" s="6" t="n">
+        <v>0.8470671013819854</v>
+      </c>
+      <c r="L13" s="6" t="n">
+        <v>0.5147976094616209</v>
+      </c>
+      <c r="M13" s="6" t="n">
+        <v>0.3883612867682829</v>
+      </c>
+      <c r="N13" s="6" t="n">
+        <v>0.1951136504321933</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="n">
+        <v>0.8659970948181763</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>0.4046821719775144</v>
+      </c>
+      <c r="E14" s="5" t="n">
+        <v>0.6428504654023567</v>
+      </c>
+      <c r="F14" s="5" t="n">
+        <v>-0.03165982504957589</v>
+      </c>
+      <c r="G14" s="5" t="n">
+        <v>-0.07413251950451819</v>
+      </c>
+      <c r="H14" s="5" t="n">
+        <v>-1.689724008883051</v>
+      </c>
+      <c r="I14" s="6" t="n">
+        <v>0.09728980120537238</v>
+      </c>
+      <c r="J14" s="6" t="n">
+        <v>0.06906661932917528</v>
+      </c>
+      <c r="K14" s="6" t="n">
+        <v>0.05578118159602568</v>
+      </c>
+      <c r="L14" s="6" t="n">
+        <v>-0.06222140121674243</v>
+      </c>
+      <c r="M14" s="6" t="n">
+        <v>-0.008499903608932852</v>
+      </c>
+      <c r="N14" s="6" t="n">
+        <v>-0.1556873637567259</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="n">
+        <v>5.221454047170951</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>3.501946180219905</v>
+      </c>
+      <c r="E15" s="5" t="n">
+        <v>4.475513359350149</v>
+      </c>
+      <c r="F15" s="5" t="n">
+        <v>4.312852005823562</v>
+      </c>
+      <c r="G15" s="5" t="n">
+        <v>5.454738232976386</v>
+      </c>
+      <c r="H15" s="5" t="n">
+        <v>4.241203970379641</v>
+      </c>
+      <c r="I15" s="6" t="n">
+        <v>2.090011547887374</v>
+      </c>
+      <c r="J15" s="6" t="n">
+        <v>1.617500313777986</v>
+      </c>
+      <c r="K15" s="6" t="n">
+        <v>1.740976138426583</v>
+      </c>
+      <c r="L15" s="6" t="n">
+        <v>1.313910499192563</v>
+      </c>
+      <c r="M15" s="6" t="n">
+        <v>1.061929867953465</v>
+      </c>
+      <c r="N15" s="6" t="n">
+        <v>0.6231078844701159</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
@@ -1208,12 +1175,12 @@
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
     <mergeCell ref="I1:N1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A13:A15"/>
     <mergeCell ref="C1:H1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
